--- a/data/feature_importance.xlsx
+++ b/data/feature_importance.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87327\Desktop\Foundation of Analytics\final project\INFO574_Group_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D1957-70FB-4A75-9EAC-496B0F6CE3D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C83E2-DF2D-4DE0-AEDB-D616DB7AA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="1" sheetId="3" r:id="rId1"/>
+    <sheet name="2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="21">
   <si>
     <t>CODE_GENDER</t>
   </si>
@@ -116,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -261,6 +265,12 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -1054,26 +1064,558 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4CF7D0CD-7C36-48D2-82B5-52C74A302F9B}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="255" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <f>1/B3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1/B4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1/B8</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I2" s="1">
+        <v>5</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1/B10</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <v>7</v>
+      </c>
+      <c r="L2" s="1">
+        <f>1/B12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>9</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>9</v>
+      </c>
+      <c r="E3" s="1">
+        <v>9</v>
+      </c>
+      <c r="F3" s="1">
+        <v>9</v>
+      </c>
+      <c r="G3" s="1">
+        <v>7</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <v>5</v>
+      </c>
+      <c r="J3" s="1">
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <f>1/D3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>7</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>1/D8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="1">
+        <f>1/D9</f>
+        <v>0.2</v>
+      </c>
+      <c r="J4" s="1">
+        <f>1/D10</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <f>1/D12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <f>1/E2</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="1">
+        <f>1/E3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5" s="1">
+        <f>1/E4</f>
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <f>1/E6</f>
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <f>1/E7</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="H5" s="1">
+        <f>1/E8</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I5" s="1">
+        <f>1/E9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J5" s="1">
+        <f>1/E10</f>
+        <v>0.125</v>
+      </c>
+      <c r="K5" s="1">
+        <f>1/E11</f>
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="1">
+        <f>1/E12</f>
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <f>1/F2</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C6" s="1">
+        <f>1/F3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6" s="1">
+        <f>1/F4</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <f>1/F7</f>
+        <v>0.125</v>
+      </c>
+      <c r="H6" s="1">
+        <f>1/F8</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="I6" s="1">
+        <f>1/F9</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J6" s="1">
+        <f>1/F10</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="K6" s="1">
+        <f>1/F11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="1">
+        <f>1/F12</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <f>1/G3</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="D7" s="1">
+        <f>1/G4</f>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>1/G8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="1">
+        <f>1/G9</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <f>1/G12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <f>1/H3</f>
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>9</v>
+      </c>
+      <c r="F8" s="1">
+        <v>9</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>1/H9</f>
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <f>1/I2</f>
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <f>1/I3</f>
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>9</v>
+      </c>
+      <c r="F9" s="1">
+        <v>9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>7</v>
+      </c>
+      <c r="L9" s="1">
+        <f>1/I12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <f>1/J3</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>7</v>
+      </c>
+      <c r="G10" s="1">
+        <f>1/J7</f>
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1">
+        <f>1/J8</f>
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="1">
+        <f>1/J9</f>
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
+      <c r="L10" s="1">
+        <f>1/J12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <f>1/K2</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="C11" s="1">
+        <f>1/K3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D11" s="1">
+        <f>1/K4</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <f>1/K7</f>
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="1">
+        <f>1/K8</f>
+        <v>0.125</v>
+      </c>
+      <c r="I11" s="1">
+        <f>1/K9</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J11" s="1">
+        <f>1/K10</f>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f>1/K12</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <f>1/L3</f>
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>9</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <f>1/L8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>7</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A12" sqref="A12"/>
+      <selection pane="topRight" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.4609375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
-    <col min="5" max="5" width="20.69140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="21.84375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="23.69140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="255" width="11.07421875" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="255" width="11.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -1108,7 +1650,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>10</v>
       </c>
@@ -1119,6 +1661,1563 @@
         <v>0.1111111111111111</v>
       </c>
       <c r="D2" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1/B8</f>
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>1/B7</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1/B10</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <f>1/B11</f>
+        <v>7.0000980014700147</v>
+      </c>
+      <c r="L2" s="1">
+        <f>1/B12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <f>1/C8</f>
+        <v>2</v>
+      </c>
+      <c r="I3" s="1">
+        <f>1/C7</f>
+        <v>7.0000980014700147</v>
+      </c>
+      <c r="J3" s="1">
+        <f>1/C10</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <f>1/C11</f>
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <f>1/C12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>1/D8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="1">
+        <f>1/D7</f>
+        <v>2</v>
+      </c>
+      <c r="J4" s="1">
+        <f>1/D10</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>1/D11</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <f>1/D12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.142855142855143</v>
+      </c>
+      <c r="H5" s="1">
+        <f>1/E8</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I5" s="1">
+        <f>1/E7</f>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="1">
+        <f>1/E10</f>
+        <v>0.125</v>
+      </c>
+      <c r="K5" s="1">
+        <f>1/E11</f>
+        <v>0.2</v>
+      </c>
+      <c r="L5" s="1">
+        <f>1/E12</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.142855142855143</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="H6" s="1">
+        <f>1/F8</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I6" s="1">
+        <f>1/F7</f>
+        <v>0.125</v>
+      </c>
+      <c r="J6" s="1">
+        <f>1/F10</f>
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="1">
+        <f>1/F11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="1">
+        <f>1/F12</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.142855142855143</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>1/G8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="1">
+        <f>1/G7</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <f>1/G10</f>
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <f>1/G11</f>
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <f>1/G12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>1/H7</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <f>1/H10</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <f>1/H11</f>
+        <v>8</v>
+      </c>
+      <c r="L8" s="1">
+        <f>1/H12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f>1/I10</f>
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <f>1/I11</f>
+        <v>7.0000980014700147</v>
+      </c>
+      <c r="L9" s="1">
+        <f>1/I12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f>1/J11</f>
+        <v>6.0000000000000604</v>
+      </c>
+      <c r="L10" s="1">
+        <f>1/J12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.142855142855143</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="1">
+        <v>5</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.125</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.142855142855143</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.16666666666666499</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f>1/K12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>5</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D51A0A-0DC6-41D5-BD11-5368F02BEF0A}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="255" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1/B8</f>
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>1/B7</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1/B10</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <f>1/B11</f>
+        <v>7.0010781671158941</v>
+      </c>
+      <c r="L2" s="1">
+        <f>1/B12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <f>1/C8</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I3" s="1">
+        <f>1/C7</f>
+        <v>7.0010781671158941</v>
+      </c>
+      <c r="J3" s="1">
+        <f>1/C10</f>
+        <v>3</v>
+      </c>
+      <c r="K3" s="1">
+        <f>1/C11</f>
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <f>1/C12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>1/D8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I4" s="1">
+        <f>1/D7</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J4" s="1">
+        <f>1/D10</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>1/D11</f>
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <f>1/D12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.14283514283514301</v>
+      </c>
+      <c r="H5" s="1">
+        <f>1/E8</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I5" s="1">
+        <f>1/E7</f>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="1">
+        <f>1/E10</f>
+        <v>0.125</v>
+      </c>
+      <c r="K5" s="1">
+        <f>1/E11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L5" s="1">
+        <f>1/E12</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.14283514283514301</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="H6" s="1">
+        <f>1/F8</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I6" s="1">
+        <f>1/F7</f>
+        <v>0.125</v>
+      </c>
+      <c r="J6" s="1">
+        <f>1/F10</f>
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="1">
+        <f>1/F11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L6" s="1">
+        <f>1/F12</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.14283514283514301</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>1/G8</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I7" s="1">
+        <f>1/G7</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <f>1/G10</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K7" s="1">
+        <f>1/G11</f>
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <f>1/G12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>3</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>1/H7</f>
+        <v>3</v>
+      </c>
+      <c r="J8" s="1">
+        <f>1/H10</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <f>1/H11</f>
+        <v>8.1300813008130088</v>
+      </c>
+      <c r="L8" s="1">
+        <f>1/H12</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f>1/I10</f>
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <f>1/I11</f>
+        <v>7.0010781671158941</v>
+      </c>
+      <c r="L9" s="1">
+        <f>1/I12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f>1/J11</f>
+        <v>6.0000000000000604</v>
+      </c>
+      <c r="L10" s="1">
+        <f>1/J12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14283514283514301</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>3</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.14283514283514301</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.16666666666666499</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f>1/K12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>3</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5CDCDD7-0892-417D-8D29-B28D93B6C6AF}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="255" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D2" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1">
+        <v>7</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
+        <f>1/B8</f>
+        <v>0.2</v>
+      </c>
+      <c r="I2" s="1">
+        <f>1/B7</f>
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <f>1/B10</f>
+        <v>1</v>
+      </c>
+      <c r="K2" s="1">
+        <f>1/B11</f>
+        <v>7.001078167115943</v>
+      </c>
+      <c r="L2" s="1">
+        <f>1/B12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1">
+        <v>7</v>
+      </c>
+      <c r="G3" s="1">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <f>1/C8</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="I3" s="1">
+        <f>1/C7</f>
+        <v>7.001078167115943</v>
+      </c>
+      <c r="J3" s="1">
+        <f>1/C10</f>
+        <v>4.5000000000000044</v>
+      </c>
+      <c r="K3" s="1">
+        <f>1/C11</f>
+        <v>9</v>
+      </c>
+      <c r="L3" s="1">
+        <f>1/C12</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2</v>
+      </c>
+      <c r="H4" s="1">
+        <f>1/D8</f>
+        <v>0.5</v>
+      </c>
+      <c r="I4" s="1">
+        <f>1/D7</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="J4" s="1">
+        <f>1/D10</f>
+        <v>1</v>
+      </c>
+      <c r="K4" s="1">
+        <f>1/D11</f>
+        <v>4.5000000000000044</v>
+      </c>
+      <c r="L4" s="1">
+        <f>1/D12</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="C5" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.14283514283514201</v>
+      </c>
+      <c r="H5" s="1">
+        <f>1/E8</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I5" s="1">
+        <f>1/E7</f>
+        <v>0.2</v>
+      </c>
+      <c r="J5" s="1">
+        <f>1/E10</f>
+        <v>0.125</v>
+      </c>
+      <c r="K5" s="1">
+        <f>1/E11</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="L5" s="1">
+        <f>1/E12</f>
+        <v>0.14285714285714285</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D6" s="1">
+        <v>0.14283514283514201</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="H6" s="1">
+        <f>1/F8</f>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="I6" s="1">
+        <f>1/F7</f>
+        <v>0.125</v>
+      </c>
+      <c r="J6" s="1">
+        <f>1/F10</f>
+        <v>0.2</v>
+      </c>
+      <c r="K6" s="1">
+        <f>1/F11</f>
+        <v>0.5</v>
+      </c>
+      <c r="L6" s="1">
+        <f>1/F12</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>0.14283514283514201</v>
+      </c>
+      <c r="D7" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5</v>
+      </c>
+      <c r="F7" s="1">
+        <v>8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <f>1/G8</f>
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="1">
+        <f>1/G7</f>
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <f>1/G10</f>
+        <v>3.3333333333333335</v>
+      </c>
+      <c r="K7" s="1">
+        <f>1/G11</f>
+        <v>5</v>
+      </c>
+      <c r="L7" s="1">
+        <f>1/G12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="1">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="D8" s="1">
+        <v>2</v>
+      </c>
+      <c r="E8" s="1">
+        <v>7</v>
+      </c>
+      <c r="F8" s="1">
+        <v>7</v>
+      </c>
+      <c r="G8" s="1">
+        <v>2</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <f>1/H7</f>
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <f>1/H10</f>
+        <v>5</v>
+      </c>
+      <c r="K8" s="1">
+        <f>1/H11</f>
+        <v>8.1300813008130088</v>
+      </c>
+      <c r="L8" s="1">
+        <f>1/H12</f>
+        <v>4.5000000000000044</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D9" s="1">
+        <v>3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>7</v>
+      </c>
+      <c r="F9" s="1">
+        <v>7</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <f>1/I10</f>
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <f>1/I11</f>
+        <v>7.001078167115943</v>
+      </c>
+      <c r="L9" s="1">
+        <f>1/I12</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1</v>
+      </c>
+      <c r="C10" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1</v>
+      </c>
+      <c r="E10" s="1">
+        <v>8</v>
+      </c>
+      <c r="F10" s="1">
+        <v>5</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>1</v>
+      </c>
+      <c r="K10" s="1">
+        <f>1/J11</f>
+        <v>6.0000000000000604</v>
+      </c>
+      <c r="L10" s="1">
+        <f>1/J12</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="1">
+        <v>0.14283514283514201</v>
+      </c>
+      <c r="C11" s="1">
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D11" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="E11" s="1">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0.123</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0.14283514283514201</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0.16666666666666499</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
+      <c r="L11" s="1">
+        <f>1/K12</f>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3</v>
+      </c>
+      <c r="C12" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>3</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7</v>
+      </c>
+      <c r="F12" s="1">
+        <v>8</v>
+      </c>
+      <c r="G12" s="1">
+        <v>2</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0.22222222222222199</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>2</v>
+      </c>
+      <c r="K12" s="1">
+        <v>5</v>
+      </c>
+      <c r="L12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="20" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA09CC14-DB93-42C1-8BBE-26ABB471C90B}">
+  <dimension ref="A1:L12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="25.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" customWidth="1"/>
+    <col min="5" max="5" width="20.75" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="23.75" bestFit="1" customWidth="1"/>
+    <col min="9" max="255" width="11.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <f>1/B3</f>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="D2" s="1">
+        <f>1/B4</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E2" s="1">
@@ -1135,7 +3234,6 @@
         <v>0.14285714285714285</v>
       </c>
       <c r="I2" s="1">
-        <f>1/B9</f>
         <v>5</v>
       </c>
       <c r="J2" s="1">
@@ -1143,7 +3241,6 @@
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <f>1/B11</f>
         <v>7</v>
       </c>
       <c r="L2" s="1">
@@ -1151,7 +3248,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
@@ -1174,27 +3271,22 @@
         <v>7</v>
       </c>
       <c r="H3" s="1">
-        <f>1/C8</f>
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <f>1/C9</f>
         <v>5</v>
       </c>
       <c r="J3" s="1">
-        <f>1/C10</f>
         <v>3</v>
       </c>
       <c r="K3" s="1">
-        <f>1/C11</f>
         <v>9</v>
       </c>
       <c r="L3" s="1">
-        <f>1/C12</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
@@ -1202,6 +3294,7 @@
         <v>3</v>
       </c>
       <c r="C4" s="1">
+        <f>1/D3</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D4" s="1">
@@ -1229,7 +3322,6 @@
         <v>1</v>
       </c>
       <c r="K4" s="1">
-        <f>1/D11</f>
         <v>3</v>
       </c>
       <c r="L4" s="1">
@@ -1237,26 +3329,31 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="1">
+        <f>1/E2</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="C5" s="1">
+        <f>1/E3</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D5" s="1">
+        <f>1/E4</f>
         <v>0.2</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
       </c>
       <c r="F5" s="1">
+        <f>1/E6</f>
         <v>0.5</v>
       </c>
       <c r="G5" s="1">
+        <f>1/E7</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="H5" s="1">
@@ -1280,18 +3377,21 @@
         <v>0.1111111111111111</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B6" s="1">
+        <f>1/F2</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="C6" s="1">
+        <f>1/F3</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D6" s="1">
-        <v>0.14285714285714299</v>
+        <f>1/F4</f>
+        <v>0.14285714285714285</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -1300,6 +3400,7 @@
         <v>1</v>
       </c>
       <c r="G6" s="1">
+        <f>1/F7</f>
         <v>0.125</v>
       </c>
       <c r="H6" s="1">
@@ -1323,7 +3424,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>15</v>
       </c>
@@ -1331,9 +3432,11 @@
         <v>1</v>
       </c>
       <c r="C7" s="1">
+        <f>1/G3</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="D7" s="1">
+        <f>1/G4</f>
         <v>0.5</v>
       </c>
       <c r="E7" s="1">
@@ -1354,11 +3457,9 @@
         <v>1</v>
       </c>
       <c r="J7" s="1">
-        <f>1/G10</f>
         <v>2</v>
       </c>
       <c r="K7" s="1">
-        <f>1/G11</f>
         <v>5</v>
       </c>
       <c r="L7" s="1">
@@ -1366,7 +3467,7 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>16</v>
       </c>
@@ -1374,6 +3475,7 @@
         <v>7</v>
       </c>
       <c r="C8" s="1">
+        <f>1/H3</f>
         <v>0.5</v>
       </c>
       <c r="D8" s="1">
@@ -1396,26 +3498,25 @@
         <v>1</v>
       </c>
       <c r="J8" s="1">
-        <f>1/H10</f>
         <v>5</v>
       </c>
       <c r="K8" s="1">
-        <f>1/H11</f>
         <v>8</v>
       </c>
       <c r="L8" s="1">
-        <f>1/H12</f>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="1">
+        <f>1/I2</f>
         <v>0.2</v>
       </c>
       <c r="C9" s="1">
+        <f>1/I3</f>
         <v>0.2</v>
       </c>
       <c r="D9" s="1">
@@ -1437,11 +3538,9 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <f>1/I10</f>
         <v>5</v>
       </c>
       <c r="K9" s="1">
-        <f>1/I11</f>
         <v>7</v>
       </c>
       <c r="L9" s="1">
@@ -1449,7 +3548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1457,6 +3556,7 @@
         <v>1</v>
       </c>
       <c r="C10" s="1">
+        <f>1/J3</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="D10" s="1">
@@ -1469,19 +3569,21 @@
         <v>7</v>
       </c>
       <c r="G10" s="1">
+        <f>1/J7</f>
         <v>0.5</v>
       </c>
       <c r="H10" s="1">
+        <f>1/J8</f>
         <v>0.2</v>
       </c>
       <c r="I10" s="1">
+        <f>1/J9</f>
         <v>0.2</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <f>1/J11</f>
         <v>6</v>
       </c>
       <c r="L10" s="1">
@@ -1489,17 +3591,20 @@
         <v>0.33333333333333331</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B11" s="1">
+        <f>1/K2</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="C11" s="1">
+        <f>1/K3</f>
         <v>0.1111111111111111</v>
       </c>
       <c r="D11" s="1">
+        <f>1/K4</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="1">
@@ -1509,15 +3614,19 @@
         <v>3</v>
       </c>
       <c r="G11" s="1">
+        <f>1/K7</f>
         <v>0.2</v>
       </c>
       <c r="H11" s="1">
+        <f>1/K8</f>
         <v>0.125</v>
       </c>
       <c r="I11" s="1">
+        <f>1/K9</f>
         <v>0.14285714285714285</v>
       </c>
       <c r="J11" s="1">
+        <f>1/K10</f>
         <v>0.16666666666666666</v>
       </c>
       <c r="K11" s="1">
@@ -1528,7 +3637,7 @@
         <v>0.14285714285714285</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1536,6 +3645,7 @@
         <v>5</v>
       </c>
       <c r="C12" s="1">
+        <f>1/L3</f>
         <v>0.2</v>
       </c>
       <c r="D12" s="1">
@@ -1551,6 +3661,7 @@
         <v>3</v>
       </c>
       <c r="H12" s="1">
+        <f>1/L8</f>
         <v>0.33333333333333331</v>
       </c>
       <c r="I12" s="1">
@@ -1567,7 +3678,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="20" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/feature_importance.xlsx
+++ b/data/feature_importance.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\87327\Desktop\Foundation of Analytics\final project\INFO574_Group_Project\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD5C83E2-DF2D-4DE0-AEDB-D616DB7AA440}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4690D4F-95A9-47D5-9A7D-90AE556C6210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="final_importance" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1068,7 +1068,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3155,8 +3155,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA09CC14-DB93-42C1-8BBE-26ABB471C90B}">
   <dimension ref="A1:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3214,7 +3214,7 @@
       </c>
       <c r="C2" s="1">
         <f>1/B3</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="D2" s="1">
         <f>1/B4</f>
@@ -3224,28 +3224,28 @@
         <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
       </c>
       <c r="H2" s="1">
         <f>1/B8</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="I2" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J2" s="1">
         <f>1/B10</f>
         <v>1</v>
       </c>
       <c r="K2" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L2" s="1">
         <f>1/B12</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -3253,28 +3253,28 @@
         <v>11</v>
       </c>
       <c r="B3" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
       <c r="D3" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E3" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1">
         <v>9</v>
       </c>
       <c r="G3" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H3" s="1">
         <v>2</v>
       </c>
       <c r="I3" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1">
         <v>3</v>
@@ -3295,7 +3295,7 @@
       </c>
       <c r="C4" s="1">
         <f>1/D3</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="D4" s="1">
         <v>1</v>
@@ -3304,7 +3304,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
@@ -3326,7 +3326,7 @@
       </c>
       <c r="L4" s="1">
         <f>1/D12</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
       </c>
       <c r="C5" s="1">
         <f>1/E3</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="D5" s="1">
         <f>1/E4</f>
@@ -3354,27 +3354,27 @@
       </c>
       <c r="G5" s="1">
         <f>1/E7</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="H5" s="1">
         <f>1/E8</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I5" s="1">
         <f>1/E9</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="J5" s="1">
         <f>1/E10</f>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="K5" s="1">
         <f>1/E11</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="L5" s="1">
         <f>1/E12</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B6" s="1">
         <f>1/F2</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="C6" s="1">
         <f>1/F3</f>
@@ -3391,7 +3391,7 @@
       </c>
       <c r="D6" s="1">
         <f>1/F4</f>
-        <v>0.14285714285714285</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="E6" s="1">
         <v>2</v>
@@ -3401,19 +3401,19 @@
       </c>
       <c r="G6" s="1">
         <f>1/F7</f>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="H6" s="1">
         <f>1/F8</f>
-        <v>0.1111111111111111</v>
+        <v>0.14285714285714285</v>
       </c>
       <c r="I6" s="1">
         <f>1/F9</f>
-        <v>0.1111111111111111</v>
+        <v>0.2</v>
       </c>
       <c r="J6" s="1">
         <f>1/F10</f>
-        <v>0.14285714285714285</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K6" s="1">
         <f>1/F11</f>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="L6" s="1">
         <f>1/F12</f>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -3433,17 +3433,17 @@
       </c>
       <c r="C7" s="1">
         <f>1/G3</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="D7" s="1">
         <f>1/G4</f>
         <v>0.5</v>
       </c>
       <c r="E7" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F7" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -3464,7 +3464,7 @@
       </c>
       <c r="L7" s="1">
         <f>1/G12</f>
-        <v>0.33333333333333331</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -3472,7 +3472,7 @@
         <v>16</v>
       </c>
       <c r="B8" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C8" s="1">
         <f>1/H3</f>
@@ -3482,10 +3482,10 @@
         <v>3</v>
       </c>
       <c r="E8" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F8" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="G8" s="1">
         <v>3</v>
@@ -3501,7 +3501,7 @@
         <v>5</v>
       </c>
       <c r="K8" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="L8" s="1">
         <v>3</v>
@@ -3513,20 +3513,20 @@
       </c>
       <c r="B9" s="1">
         <f>1/I2</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C9" s="1">
         <f>1/I3</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D9" s="1">
         <v>5</v>
       </c>
       <c r="E9" s="1">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F9" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -3538,10 +3538,10 @@
         <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="K9" s="1">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="L9" s="1">
         <f>1/I12</f>
@@ -3563,10 +3563,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F10" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G10" s="1">
         <f>1/J7</f>
@@ -3578,13 +3578,13 @@
       </c>
       <c r="I10" s="1">
         <f>1/J9</f>
-        <v>0.2</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="1">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="L10" s="1">
         <f>1/J12</f>
@@ -3597,7 +3597,7 @@
       </c>
       <c r="B11" s="1">
         <f>1/K2</f>
-        <v>0.14285714285714285</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="C11" s="1">
         <f>1/K3</f>
@@ -3608,7 +3608,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="E11" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F11" s="1">
         <v>3</v>
@@ -3619,22 +3619,22 @@
       </c>
       <c r="H11" s="1">
         <f>1/K8</f>
-        <v>0.125</v>
+        <v>0.2</v>
       </c>
       <c r="I11" s="1">
         <f>1/K9</f>
-        <v>0.14285714285714285</v>
+        <v>0.2</v>
       </c>
       <c r="J11" s="1">
         <f>1/K10</f>
-        <v>0.16666666666666666</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="K11" s="1">
         <v>1</v>
       </c>
       <c r="L11" s="1">
         <f>1/K12</f>
-        <v>0.14285714285714285</v>
+        <v>0.33333333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
@@ -3642,23 +3642,23 @@
         <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1">
         <f>1/L3</f>
         <v>0.2</v>
       </c>
       <c r="D12" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E12" s="1">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F12" s="1">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G12" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <f>1/L8</f>
@@ -3671,7 +3671,7 @@
         <v>3</v>
       </c>
       <c r="K12" s="1">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="L12" s="1">
         <v>1</v>
